--- a/test/upload/students.xlsx
+++ b/test/upload/students.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>CPF</t>
   </si>
@@ -50,9 +50,6 @@
     <t>POLO</t>
   </si>
   <si>
-    <t>570.518.102-78</t>
-  </si>
-  <si>
     <t>GONÇALO MONTEIRO BARATA</t>
   </si>
   <si>
@@ -65,25 +62,16 @@
     <t>node-pole</t>
   </si>
   <si>
-    <t>440.596.552-87</t>
-  </si>
-  <si>
     <t>MARCELO ANTÔNIO TAVARES GOMES</t>
   </si>
   <si>
     <t>TESTEcgs2025@gmail.com</t>
   </si>
   <si>
-    <t>611.689.392-91</t>
-  </si>
-  <si>
     <t>KLEBER DA ROSA RIBEIRO</t>
   </si>
   <si>
     <t>TESTEcgs2026@gmail.com</t>
-  </si>
-  <si>
-    <t>006.705.812-40</t>
   </si>
   <si>
     <t>WELLINGTON SOUZA DE OLIVEIRA</t>
@@ -1310,7 +1298,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="6"/>
@@ -1348,14 +1336,14 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="4">
+        <v>57051810278</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="6">
         <v>12345</v>
@@ -1364,21 +1352,21 @@
         <v>37539</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+    </row>
+    <row r="3" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A3" s="8">
+        <v>44059655287</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
       </c>
       <c r="D3" s="6">
         <v>12456</v>
@@ -1387,21 +1375,21 @@
         <v>38403</v>
       </c>
       <c r="F3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A4" s="8" t="s">
-        <v>15</v>
+      <c r="A4" s="8">
+        <v>61168939291</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6">
         <v>12346</v>
@@ -1410,21 +1398,21 @@
         <v>36962</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:7">
-      <c r="A5" s="8" t="s">
-        <v>18</v>
+      <c r="A5" s="8">
+        <v>10670581240</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" s="6">
         <v>12342</v>
@@ -1433,10 +1421,10 @@
         <v>37261</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:6">
@@ -1489,7 +1477,7 @@
     </row>
     <row r="12" ht="15.75" customHeight="1" spans="1:6">
       <c r="A12" s="8"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
